--- a/2019培养方案/计算机系/师范汉/师范汉2019版培养方案教学计划表.xlsx
+++ b/2019培养方案/计算机系/师范汉/师范汉2019版培养方案教学计划表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaolimeng/Desktop/TrainingProgram/2020培养方案/学院文件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaolimeng/Desktop/TrainingProgram/2019培养方案/计算机系/师范汉/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4D962A-A33E-B747-929C-9C91A01814E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9D0B4F-848B-4A40-8ED4-B0C9CC7FECF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="26740" windowHeight="13920" xr2:uid="{74498C44-5FD6-194B-94A7-4A4369107275}"/>
   </bookViews>
@@ -1247,6 +1247,678 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,6 +1928,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1273,681 +1948,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2266,25 +2266,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E73750-7651-2044-A70D-3EFBB4413B7D}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="218" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="219" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="220" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="220" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="220" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="220" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="220" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="234" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="220" customWidth="1"/>
-    <col min="11" max="11" width="7" style="220" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="220" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" style="220" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="193" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="194" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="195" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="195" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="195" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="195" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="195" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="208" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" style="195" customWidth="1"/>
+    <col min="11" max="11" width="7" style="195" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="195" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="195" customWidth="1"/>
     <col min="14" max="14" width="7.6640625" customWidth="1"/>
     <col min="15" max="15" width="23.83203125" customWidth="1"/>
     <col min="16" max="16" width="5.6640625" customWidth="1"/>
@@ -3491,1950 +3491,1960 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="225" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="227" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="8" t="s">
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="9"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="234"/>
     </row>
     <row r="3" spans="1:19" ht="17" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="228"/>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A4" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="10">
         <v>3100016</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="12">
         <v>54</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="13">
         <v>2</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="16">
         <v>32</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="17">
         <v>2</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="19">
         <v>0</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32" t="s">
+      <c r="N4" s="20"/>
+      <c r="O4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="22">
         <v>64</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="23">
         <v>3</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39">
+    <row r="5" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A5" s="221"/>
+      <c r="B5" s="27">
         <v>3100017</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="29">
         <v>36</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="29">
         <v>1</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="30">
         <v>2</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="33">
         <v>32</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="34">
         <v>2</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="36">
         <v>2</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
-    </row>
-    <row r="6" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39" t="s">
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A6" s="221"/>
+      <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="29">
         <v>36</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="29">
         <v>2</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="30">
         <v>3</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="33">
         <v>16</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="34">
         <v>1</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="36">
         <v>1</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="52"/>
-    </row>
-    <row r="7" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A7" s="38"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="40" t="s">
+      <c r="N6" s="37"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A7" s="221"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="29">
         <v>80</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="29">
         <v>4</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="30">
         <v>6</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="57"/>
-    </row>
-    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="45"/>
+    </row>
+    <row r="8" spans="1:19" s="26" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="221"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="48">
         <v>64</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="48">
         <v>3</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="49">
         <v>3</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="66"/>
-    </row>
-    <row r="9" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A9" s="20" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+    </row>
+    <row r="9" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A9" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="55">
         <v>3100013</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="57">
         <v>54</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="57">
         <v>3</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="58">
         <v>2</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="16">
         <v>32</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="17">
         <v>2</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="19">
         <v>0</v>
       </c>
-      <c r="N9" s="71"/>
-      <c r="O9" s="72" t="s">
+      <c r="N9" s="59"/>
+      <c r="O9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="73">
+      <c r="P9" s="61">
         <v>64</v>
       </c>
-      <c r="Q9" s="74">
+      <c r="Q9" s="62">
         <v>3</v>
       </c>
-      <c r="R9" s="75" t="s">
+      <c r="R9" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="76">
+      <c r="S9" s="64">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39">
+    <row r="10" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A10" s="221"/>
+      <c r="B10" s="27">
         <v>3100009</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="29">
         <v>36</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="30">
         <v>2</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="34">
         <v>1</v>
       </c>
-      <c r="L10" s="47" t="s">
+      <c r="L10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="54" t="s">
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="56" t="s">
+      <c r="Q10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="77" t="s">
+      <c r="R10" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="57" t="s">
+      <c r="S10" s="45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39" t="s">
+    <row r="11" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A11" s="221"/>
+      <c r="B11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="29">
         <v>36</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="29">
         <v>2</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="33">
         <v>16</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="34">
         <v>1</v>
       </c>
-      <c r="L11" s="47" t="s">
+      <c r="L11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="36">
         <v>1</v>
       </c>
-      <c r="N11" s="49"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="57"/>
-    </row>
-    <row r="12" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A12" s="38"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="40" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="45"/>
+    </row>
+    <row r="12" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A12" s="221"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="29">
         <v>80</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="29">
         <v>4</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="30">
         <v>6</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="57"/>
-    </row>
-    <row r="13" spans="1:19" s="37" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="45"/>
+    </row>
+    <row r="13" spans="1:19" s="26" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A13" s="221"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="68">
         <v>64</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="68">
         <v>3</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="69">
         <v>3</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="57"/>
-    </row>
-    <row r="14" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A14" s="82" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="45"/>
+    </row>
+    <row r="14" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A14" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="10">
         <v>3100015</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="12">
         <v>36</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="12">
         <v>2</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="71">
         <v>2</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="16">
         <v>32</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="17">
         <v>2</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="19">
         <v>0</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32" t="s">
+      <c r="N14" s="20"/>
+      <c r="O14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="23">
         <v>64</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="24">
         <v>3</v>
       </c>
-      <c r="R14" s="35" t="s">
+      <c r="R14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A15" s="85"/>
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A15" s="222"/>
+      <c r="B15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="29">
         <v>36</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="29">
         <v>2</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="30">
         <v>3</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="33">
         <v>16</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="34">
         <v>1</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="36">
         <v>1</v>
       </c>
-      <c r="N15" s="86"/>
-      <c r="O15" s="54" t="s">
+      <c r="N15" s="72"/>
+      <c r="O15" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="56">
+      <c r="P15" s="44">
         <v>64</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="39">
         <v>3</v>
       </c>
-      <c r="R15" s="77" t="s">
+      <c r="R15" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="57">
+      <c r="S15" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A16" s="85"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="79" t="s">
+    <row r="16" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A16" s="222"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="68">
         <v>64</v>
       </c>
-      <c r="E16" s="80">
+      <c r="E16" s="68">
         <v>4</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="69">
         <v>4</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="33">
         <v>32</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="34">
         <v>1</v>
       </c>
-      <c r="L16" s="47" t="s">
+      <c r="L16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="36">
         <v>2</v>
       </c>
-      <c r="N16" s="86"/>
-      <c r="O16" s="54" t="s">
+      <c r="N16" s="72"/>
+      <c r="O16" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="56">
+      <c r="P16" s="44">
         <v>32</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="39">
         <v>1</v>
       </c>
-      <c r="R16" s="77" t="s">
+      <c r="R16" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="57">
+      <c r="S16" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A17" s="85"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="79" t="s">
+    <row r="17" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A17" s="222"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="68">
         <v>32</v>
       </c>
-      <c r="E17" s="80">
+      <c r="E17" s="68">
         <v>1</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="81">
+      <c r="G17" s="69">
         <v>4</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="57"/>
-    </row>
-    <row r="18" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A18" s="85"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="79" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="45"/>
+    </row>
+    <row r="18" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A18" s="222"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="68">
         <v>32</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="68">
         <v>2</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="69">
         <v>2</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="89"/>
-    </row>
-    <row r="19" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A19" s="85"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="89"/>
-    </row>
-    <row r="20" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A20" s="85"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40" t="s">
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="75"/>
+    </row>
+    <row r="19" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A19" s="222"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="75"/>
+    </row>
+    <row r="20" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A20" s="222"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="29">
         <v>32</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="29">
         <v>2</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="30">
         <v>3</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="89"/>
-    </row>
-    <row r="21" spans="1:19" s="37" customFormat="1" ht="15" thickBot="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="66"/>
-    </row>
-    <row r="22" spans="1:19" s="37" customFormat="1" ht="30">
-      <c r="A22" s="85" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="75"/>
+    </row>
+    <row r="21" spans="1:19" s="26" customFormat="1" ht="15" thickBot="1">
+      <c r="A21" s="211"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="54"/>
+    </row>
+    <row r="22" spans="1:19" s="26" customFormat="1" ht="30">
+      <c r="A22" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="55">
         <v>3100014</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="69">
+      <c r="D22" s="57">
         <v>108</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="57">
         <v>6</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="58">
         <v>4</v>
       </c>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101" t="s">
+      <c r="H22" s="85"/>
+      <c r="I22" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="102">
+      <c r="J22" s="87">
         <v>32</v>
       </c>
-      <c r="K22" s="103">
+      <c r="K22" s="88">
         <v>2</v>
       </c>
-      <c r="L22" s="104" t="s">
+      <c r="L22" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="105">
+      <c r="M22" s="90">
         <v>0</v>
       </c>
-      <c r="N22" s="106"/>
-      <c r="O22" s="54" t="s">
+      <c r="N22" s="91"/>
+      <c r="O22" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="P22" s="56">
+      <c r="P22" s="44">
         <v>48</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="39">
         <v>3</v>
       </c>
-      <c r="R22" s="107" t="s">
+      <c r="R22" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="76">
+      <c r="S22" s="64">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A23" s="85"/>
-      <c r="B23" s="39" t="s">
+    <row r="23" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A23" s="222"/>
+      <c r="B23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="29">
         <v>36</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="29">
         <v>2</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="30">
         <v>3</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44" t="s">
+      <c r="H23" s="31"/>
+      <c r="J23" s="33">
+        <v>16</v>
+      </c>
+      <c r="K23" s="34">
+        <v>1</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="36">
+        <v>1</v>
+      </c>
+      <c r="N23" s="37"/>
+      <c r="O23" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23" s="44">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A24" s="222"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="68">
+        <v>64</v>
+      </c>
+      <c r="E24" s="68">
+        <v>4</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="69">
+        <v>4</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="J24" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="45">
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="44">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="39">
+        <v>3</v>
+      </c>
+      <c r="R24" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="46">
+      <c r="S24" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A25" s="222"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="68">
+        <v>32</v>
+      </c>
+      <c r="E25" s="68">
         <v>1</v>
       </c>
-      <c r="L23" s="47" t="s">
+      <c r="F25" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="69">
+        <v>2</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="45"/>
+    </row>
+    <row r="26" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A26" s="222"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="68">
+        <v>48</v>
+      </c>
+      <c r="E26" s="68">
+        <v>3</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="69">
+        <v>4</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="45"/>
+    </row>
+    <row r="27" spans="1:19" s="26" customFormat="1" ht="15" thickBot="1">
+      <c r="A27" s="211"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="48">
+        <v>16</v>
+      </c>
+      <c r="E27" s="48">
+        <v>1</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="49">
+        <v>2</v>
+      </c>
+      <c r="H27" s="77"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="54"/>
+    </row>
+    <row r="28" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A28" s="223" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="94">
+        <v>3300003</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="87">
+        <v>16</v>
+      </c>
+      <c r="K28" s="88">
+        <v>1</v>
+      </c>
+      <c r="L28" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="48">
+      <c r="M28" s="90">
         <v>1</v>
       </c>
-      <c r="N23" s="49"/>
-      <c r="O23" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" s="56">
+      <c r="N28" s="91"/>
+      <c r="O28" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="62">
         <v>48</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q28" s="92">
+        <v>3</v>
+      </c>
+      <c r="R28" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A29" s="223"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="68">
+        <v>64</v>
+      </c>
+      <c r="E29" s="68">
+        <v>4</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="69">
+        <v>4</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="33">
+        <v>32</v>
+      </c>
+      <c r="K29" s="34">
+        <v>2</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="36">
+        <v>2</v>
+      </c>
+      <c r="N29" s="37"/>
+      <c r="O29" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="44">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="39">
         <v>1.5</v>
       </c>
-      <c r="R23" s="51" t="s">
+      <c r="R29" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S23" s="57">
+      <c r="S29" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A24" s="85"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="80">
+    <row r="30" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A30" s="223"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="68">
+        <v>32</v>
+      </c>
+      <c r="E30" s="68">
+        <v>1</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="69">
+        <v>2</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="45"/>
+    </row>
+    <row r="31" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A31" s="223"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="68">
         <v>64</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E31" s="68">
         <v>4</v>
       </c>
-      <c r="F24" s="80" t="s">
+      <c r="F31" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G31" s="69">
         <v>4</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="P24" s="56">
-        <v>64</v>
-      </c>
-      <c r="Q24" s="51">
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="45"/>
+    </row>
+    <row r="32" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A32" s="223"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="68">
+        <v>32</v>
+      </c>
+      <c r="E32" s="68">
+        <v>1</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="69">
+        <v>2</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="45"/>
+    </row>
+    <row r="33" spans="1:19" s="26" customFormat="1" ht="15" thickBot="1">
+      <c r="A33" s="224"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="54"/>
+    </row>
+    <row r="34" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A34" s="222" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="95"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="87">
+        <v>32</v>
+      </c>
+      <c r="K34" s="88">
+        <v>2</v>
+      </c>
+      <c r="L34" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="90">
+        <v>0</v>
+      </c>
+      <c r="N34" s="91"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="64"/>
+    </row>
+    <row r="35" spans="1:19" s="26" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A35" s="222"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="45"/>
+    </row>
+    <row r="36" spans="1:19" s="26" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A36" s="222"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="45"/>
+    </row>
+    <row r="37" spans="1:19" s="26" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A37" s="211"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="54"/>
+    </row>
+    <row r="38" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A38" s="222" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="101"/>
+      <c r="C38" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="103">
         <v>3</v>
       </c>
-      <c r="R24" s="77" t="s">
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" s="61">
+        <v>96</v>
+      </c>
+      <c r="Q38" s="62">
+        <v>3</v>
+      </c>
+      <c r="R38" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="S24" s="57">
+      <c r="S38" s="64"/>
+    </row>
+    <row r="39" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A39" s="222"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="45"/>
+    </row>
+    <row r="40" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A40" s="222"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="45"/>
+    </row>
+    <row r="41" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A41" s="222"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="45"/>
+    </row>
+    <row r="42" spans="1:19" s="26" customFormat="1" ht="15" thickBot="1">
+      <c r="A42" s="211"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="118"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54"/>
+    </row>
+    <row r="43" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A43" s="210" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="119"/>
+      <c r="C43" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="120">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A25" s="85"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="80">
-        <v>32</v>
-      </c>
-      <c r="E25" s="80">
-        <v>1</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="81">
-        <v>2</v>
-      </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="57"/>
-    </row>
-    <row r="26" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A26" s="85"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="80">
-        <v>48</v>
-      </c>
-      <c r="E26" s="80">
-        <v>3</v>
-      </c>
-      <c r="F26" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="81">
-        <v>4</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="57"/>
-    </row>
-    <row r="27" spans="1:19" s="37" customFormat="1" ht="15" thickBot="1">
-      <c r="A27" s="90"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="60">
-        <v>16</v>
-      </c>
-      <c r="E27" s="60">
-        <v>1</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="61">
-        <v>2</v>
-      </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="66"/>
-    </row>
-    <row r="28" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A28" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="110">
-        <v>3300003</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="102">
-        <v>16</v>
-      </c>
-      <c r="K28" s="103">
-        <v>1</v>
-      </c>
-      <c r="L28" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="105">
-        <v>1</v>
-      </c>
-      <c r="N28" s="106"/>
-      <c r="O28" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="74">
-        <v>48</v>
-      </c>
-      <c r="Q28" s="107">
-        <v>3</v>
-      </c>
-      <c r="R28" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="S28" s="76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A29" s="109"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="80">
-        <v>64</v>
-      </c>
-      <c r="E29" s="80">
-        <v>4</v>
-      </c>
-      <c r="F29" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="81">
-        <v>4</v>
-      </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="45">
-        <v>32</v>
-      </c>
-      <c r="K29" s="46">
-        <v>2</v>
-      </c>
-      <c r="L29" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="48">
-        <v>2</v>
-      </c>
-      <c r="N29" s="49"/>
-      <c r="O29" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" s="56">
-        <v>48</v>
-      </c>
-      <c r="Q29" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="R29" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A30" s="109"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="80">
-        <v>32</v>
-      </c>
-      <c r="E30" s="80">
-        <v>1</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="81">
-        <v>2</v>
-      </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="57"/>
-    </row>
-    <row r="31" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A31" s="109"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="80">
-        <v>64</v>
-      </c>
-      <c r="E31" s="80">
-        <v>4</v>
-      </c>
-      <c r="F31" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="81">
-        <v>4</v>
-      </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="57"/>
-    </row>
-    <row r="32" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A32" s="109"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="80">
-        <v>32</v>
-      </c>
-      <c r="E32" s="80">
-        <v>1</v>
-      </c>
-      <c r="F32" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="81">
-        <v>2</v>
-      </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="57"/>
-    </row>
-    <row r="33" spans="1:19" s="37" customFormat="1" ht="15" thickBot="1">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="66"/>
-    </row>
-    <row r="34" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A34" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="102">
-        <v>32</v>
-      </c>
-      <c r="K34" s="103">
-        <v>2</v>
-      </c>
-      <c r="L34" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="105">
-        <v>0</v>
-      </c>
-      <c r="N34" s="106"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="76"/>
-    </row>
-    <row r="35" spans="1:19" s="37" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A35" s="85"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="57"/>
-    </row>
-    <row r="36" spans="1:19" s="37" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="85"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="57"/>
-    </row>
-    <row r="37" spans="1:19" s="37" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="90"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="98"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="66"/>
-    </row>
-    <row r="38" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A38" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="118"/>
-      <c r="C38" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="120">
-        <v>3</v>
-      </c>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="P38" s="73">
-        <v>96</v>
-      </c>
-      <c r="Q38" s="74">
-        <v>3</v>
-      </c>
-      <c r="R38" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="S38" s="76"/>
-    </row>
-    <row r="39" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A39" s="85"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="57"/>
-    </row>
-    <row r="40" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A40" s="85"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="57"/>
-    </row>
-    <row r="41" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A41" s="85"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="57"/>
-    </row>
-    <row r="42" spans="1:19" s="37" customFormat="1" ht="15" thickBot="1">
-      <c r="A42" s="90"/>
-      <c r="B42" s="127"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="135"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="66"/>
-    </row>
-    <row r="43" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A43" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="136"/>
-      <c r="C43" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="137" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="137">
-        <v>3</v>
-      </c>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="76"/>
-    </row>
-    <row r="44" spans="1:19" s="37" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A44" s="90"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="66"/>
-    </row>
-    <row r="45" spans="1:19" s="37" customFormat="1" ht="28" customHeight="1">
-      <c r="A45" s="140" t="s">
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="64"/>
+    </row>
+    <row r="44" spans="1:19" s="26" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A44" s="211"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="54"/>
+    </row>
+    <row r="45" spans="1:19" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A45" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="141"/>
-      <c r="C45" s="142" t="s">
+      <c r="B45" s="124"/>
+      <c r="C45" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="143"/>
-      <c r="E45" s="144">
+      <c r="D45" s="126"/>
+      <c r="E45" s="127">
         <f>SUM(E4:E44)</f>
         <v>73</v>
       </c>
-      <c r="F45" s="144"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="146" t="s">
+      <c r="F45" s="127"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="J45" s="143">
+      <c r="J45" s="126">
         <f>SUM(J4:J44)</f>
         <v>336</v>
       </c>
-      <c r="K45" s="147">
+      <c r="K45" s="130">
         <f>SUM(K4:K44)</f>
         <v>21</v>
       </c>
-      <c r="L45" s="147"/>
-      <c r="M45" s="148"/>
-      <c r="N45" s="148"/>
-      <c r="O45" s="148" t="s">
+      <c r="L45" s="130"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="P45" s="148">
+      <c r="P45" s="131">
         <f>SUM(P4:P44)</f>
         <v>640</v>
       </c>
-      <c r="Q45" s="148">
+      <c r="Q45" s="131">
         <f>SUM(Q4:Q44)</f>
         <v>28</v>
       </c>
-      <c r="R45" s="148"/>
-      <c r="S45" s="148"/>
-    </row>
-    <row r="46" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A46" s="149"/>
-      <c r="B46" s="150"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="155"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="157"/>
-    </row>
-    <row r="47" spans="1:19" s="37" customFormat="1" ht="15" thickBot="1">
-      <c r="A47" s="149"/>
-      <c r="B47" s="150"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="154"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="158"/>
-      <c r="K47" s="156"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="157"/>
-    </row>
-    <row r="48" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="A48" s="159" t="s">
+      <c r="R45" s="131"/>
+      <c r="S45" s="131"/>
+    </row>
+    <row r="46" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A46" s="132"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="140"/>
+    </row>
+    <row r="47" spans="1:19" s="26" customFormat="1" ht="15" thickBot="1">
+      <c r="A47" s="132"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="141"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="140"/>
+    </row>
+    <row r="48" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="A48" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="161" t="s">
+      <c r="C48" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161" t="s">
+      <c r="D48" s="144"/>
+      <c r="E48" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="163" t="s">
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="J48" s="163">
+      <c r="J48" s="146">
         <v>16</v>
       </c>
-      <c r="K48" s="164"/>
-      <c r="L48" s="164"/>
-      <c r="M48" s="161"/>
-      <c r="N48" s="161"/>
-      <c r="O48" s="165" t="s">
+      <c r="K48" s="147"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="144"/>
+      <c r="N48" s="144"/>
+      <c r="O48" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="P48" s="161">
+      <c r="P48" s="144">
         <v>34</v>
       </c>
-      <c r="Q48" s="161"/>
-      <c r="R48" s="161"/>
-      <c r="S48" s="161" t="s">
+      <c r="Q48" s="144"/>
+      <c r="R48" s="144"/>
+      <c r="S48" s="144" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="37" customFormat="1" ht="24" customHeight="1">
-      <c r="A49" s="166"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="168" t="s">
+    <row r="49" spans="1:19" s="26" customFormat="1" ht="24" customHeight="1">
+      <c r="A49" s="149"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="169"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="173"/>
-      <c r="I49" s="174" t="s">
+      <c r="D49" s="152"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="J49" s="175"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="176"/>
-      <c r="M49" s="177"/>
-      <c r="N49" s="178"/>
-      <c r="O49" s="178"/>
-      <c r="P49" s="178"/>
-      <c r="Q49" s="178"/>
-      <c r="R49" s="178"/>
-      <c r="S49" s="179"/>
-    </row>
-    <row r="50" spans="1:19" s="37" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A50" s="180"/>
-      <c r="B50" s="181"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="172"/>
-      <c r="H50" s="173"/>
-      <c r="I50" s="182"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="184"/>
-      <c r="L50" s="184"/>
-      <c r="M50" s="185"/>
-      <c r="N50" s="186"/>
-      <c r="O50" s="186"/>
-      <c r="P50" s="186"/>
-      <c r="Q50" s="186"/>
-      <c r="R50" s="186"/>
-      <c r="S50" s="187"/>
-    </row>
-    <row r="51" spans="1:19" s="37" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A51" s="180"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="172"/>
-      <c r="H51" s="173"/>
-      <c r="I51" s="188"/>
-      <c r="J51" s="189"/>
-      <c r="K51" s="190"/>
-      <c r="L51" s="190"/>
-      <c r="M51" s="185"/>
-      <c r="N51" s="186"/>
-      <c r="O51" s="186"/>
-      <c r="P51" s="186"/>
-      <c r="Q51" s="186"/>
-      <c r="R51" s="186"/>
-      <c r="S51" s="187"/>
-    </row>
-    <row r="52" spans="1:19" s="37" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A52" s="191"/>
-      <c r="B52" s="192" t="s">
+      <c r="J49" s="158"/>
+      <c r="K49" s="159"/>
+      <c r="L49" s="159"/>
+      <c r="M49" s="212"/>
+      <c r="N49" s="213"/>
+      <c r="O49" s="213"/>
+      <c r="P49" s="213"/>
+      <c r="Q49" s="213"/>
+      <c r="R49" s="213"/>
+      <c r="S49" s="214"/>
+    </row>
+    <row r="50" spans="1:19" s="26" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A50" s="160"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="163"/>
+      <c r="K50" s="164"/>
+      <c r="L50" s="164"/>
+      <c r="M50" s="215"/>
+      <c r="N50" s="216"/>
+      <c r="O50" s="216"/>
+      <c r="P50" s="216"/>
+      <c r="Q50" s="216"/>
+      <c r="R50" s="216"/>
+      <c r="S50" s="217"/>
+    </row>
+    <row r="51" spans="1:19" s="26" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A51" s="160"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="166"/>
+      <c r="K51" s="167"/>
+      <c r="L51" s="167"/>
+      <c r="M51" s="215"/>
+      <c r="N51" s="216"/>
+      <c r="O51" s="216"/>
+      <c r="P51" s="216"/>
+      <c r="Q51" s="216"/>
+      <c r="R51" s="216"/>
+      <c r="S51" s="217"/>
+    </row>
+    <row r="52" spans="1:19" s="26" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A52" s="218"/>
+      <c r="B52" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="193" t="s">
+      <c r="C52" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="194"/>
-      <c r="E52" s="195"/>
-      <c r="F52" s="196"/>
-      <c r="G52" s="172"/>
-      <c r="H52" s="173"/>
-      <c r="I52" s="197" t="s">
+      <c r="D52" s="169"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="198"/>
-      <c r="K52" s="199"/>
-      <c r="L52" s="199"/>
-      <c r="M52" s="200"/>
-      <c r="N52" s="200"/>
-      <c r="O52" s="201"/>
-      <c r="P52" s="202"/>
-      <c r="Q52" s="203"/>
-      <c r="R52" s="203"/>
-      <c r="S52" s="203"/>
-    </row>
-    <row r="53" spans="1:19" s="37" customFormat="1" ht="24" customHeight="1">
-      <c r="A53" s="191"/>
-      <c r="B53" s="192"/>
-      <c r="C53" s="193" t="s">
+      <c r="J52" s="173"/>
+      <c r="K52" s="174"/>
+      <c r="L52" s="174"/>
+      <c r="M52" s="175"/>
+      <c r="N52" s="175"/>
+      <c r="O52" s="176"/>
+      <c r="P52" s="177"/>
+      <c r="Q52" s="178"/>
+      <c r="R52" s="178"/>
+      <c r="S52" s="178"/>
+    </row>
+    <row r="53" spans="1:19" s="26" customFormat="1" ht="24" customHeight="1">
+      <c r="A53" s="218"/>
+      <c r="B53" s="219"/>
+      <c r="C53" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="194"/>
-      <c r="E53" s="195"/>
-      <c r="F53" s="196"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="173"/>
-      <c r="I53" s="204" t="s">
+      <c r="D53" s="169"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="J53" s="202"/>
-      <c r="K53" s="203"/>
-      <c r="L53" s="203"/>
-      <c r="M53" s="200"/>
-      <c r="N53" s="200"/>
-      <c r="O53" s="201"/>
-      <c r="P53" s="202"/>
-      <c r="Q53" s="203"/>
-      <c r="R53" s="203"/>
-      <c r="S53" s="205"/>
-    </row>
-    <row r="54" spans="1:19" s="37" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A54" s="206" t="s">
+      <c r="J53" s="177"/>
+      <c r="K53" s="178"/>
+      <c r="L53" s="178"/>
+      <c r="M53" s="175"/>
+      <c r="N53" s="175"/>
+      <c r="O53" s="176"/>
+      <c r="P53" s="177"/>
+      <c r="Q53" s="178"/>
+      <c r="R53" s="178"/>
+      <c r="S53" s="180"/>
+    </row>
+    <row r="54" spans="1:19" s="26" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A54" s="181" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="207"/>
-      <c r="C54" s="208"/>
-      <c r="D54" s="209"/>
-      <c r="E54" s="210"/>
-      <c r="F54" s="211"/>
-      <c r="G54" s="172"/>
-      <c r="H54" s="173"/>
-      <c r="I54" s="208"/>
-      <c r="J54" s="208"/>
-      <c r="K54" s="212"/>
-      <c r="L54" s="212"/>
-      <c r="M54" s="208"/>
-      <c r="N54" s="208"/>
-      <c r="O54" s="208"/>
-      <c r="P54" s="208"/>
-      <c r="Q54" s="213"/>
-      <c r="R54" s="213"/>
-      <c r="S54" s="208"/>
-    </row>
-    <row r="55" spans="1:19" s="37" customFormat="1" ht="14">
-      <c r="B55" s="214"/>
-      <c r="C55" s="215"/>
-      <c r="D55" s="216"/>
-      <c r="E55" s="216"/>
-      <c r="F55" s="216"/>
-      <c r="G55" s="216"/>
-      <c r="H55" s="216"/>
-      <c r="I55" s="217"/>
-      <c r="J55" s="216"/>
-      <c r="K55" s="216"/>
-      <c r="L55" s="216"/>
-      <c r="M55" s="216"/>
-    </row>
-    <row r="56" spans="1:19" s="37" customFormat="1">
+      <c r="B54" s="182"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="185"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="183"/>
+      <c r="J54" s="183"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="187"/>
+      <c r="M54" s="183"/>
+      <c r="N54" s="183"/>
+      <c r="O54" s="183"/>
+      <c r="P54" s="183"/>
+      <c r="Q54" s="188"/>
+      <c r="R54" s="188"/>
+      <c r="S54" s="183"/>
+    </row>
+    <row r="55" spans="1:19" s="26" customFormat="1" ht="14">
+      <c r="B55" s="189"/>
+      <c r="C55" s="190"/>
+      <c r="D55" s="191"/>
+      <c r="E55" s="191"/>
+      <c r="F55" s="191"/>
+      <c r="G55" s="191"/>
+      <c r="H55" s="191"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="191"/>
+      <c r="K55" s="191"/>
+      <c r="L55" s="191"/>
+      <c r="M55" s="191"/>
+    </row>
+    <row r="56" spans="1:19" s="26" customFormat="1">
       <c r="A56"/>
-      <c r="B56" s="218"/>
-      <c r="C56" s="219"/>
-      <c r="D56" s="220"/>
-      <c r="E56" s="220"/>
-      <c r="F56" s="220"/>
-      <c r="G56" s="216"/>
-      <c r="H56" s="216"/>
-      <c r="I56" s="217"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="216"/>
-      <c r="M56" s="216"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="194"/>
+      <c r="D56" s="195"/>
+      <c r="E56" s="195"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="191"/>
+      <c r="H56" s="191"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="191"/>
+      <c r="K56" s="191"/>
+      <c r="L56" s="191"/>
+      <c r="M56" s="191"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="G57" s="217"/>
-      <c r="H57" s="216"/>
-      <c r="I57" s="217"/>
-      <c r="J57" s="216"/>
-      <c r="K57" s="216"/>
-      <c r="L57" s="216"/>
+      <c r="G57" s="192"/>
+      <c r="H57" s="191"/>
+      <c r="I57" s="192"/>
+      <c r="J57" s="191"/>
+      <c r="K57" s="191"/>
+      <c r="L57" s="191"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="B58" s="221"/>
-      <c r="C58" s="222"/>
-      <c r="D58" s="222"/>
-      <c r="E58" s="222"/>
-      <c r="F58" s="222"/>
-      <c r="G58" s="223"/>
-      <c r="H58" s="222"/>
-      <c r="I58" s="224"/>
-      <c r="J58" s="225"/>
-      <c r="K58" s="225"/>
-      <c r="L58" s="225"/>
-      <c r="M58" s="226"/>
-      <c r="N58" s="226"/>
-      <c r="O58" s="226"/>
+      <c r="B58" s="196"/>
+      <c r="C58" s="197"/>
+      <c r="D58" s="197"/>
+      <c r="E58" s="197"/>
+      <c r="F58" s="197"/>
+      <c r="G58" s="198"/>
+      <c r="H58" s="197"/>
+      <c r="I58" s="199"/>
+      <c r="J58" s="200"/>
+      <c r="K58" s="200"/>
+      <c r="L58" s="200"/>
+      <c r="M58" s="209"/>
+      <c r="N58" s="209"/>
+      <c r="O58" s="209"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="B59" s="221"/>
-      <c r="C59" s="222"/>
-      <c r="D59" s="222"/>
-      <c r="E59" s="227"/>
-      <c r="F59" s="227"/>
-      <c r="G59" s="228"/>
-      <c r="H59" s="228"/>
-      <c r="I59" s="228"/>
-      <c r="J59" s="225"/>
-      <c r="K59" s="225"/>
-      <c r="L59" s="225"/>
-      <c r="M59" s="226"/>
-      <c r="N59" s="226"/>
-      <c r="O59" s="226"/>
+      <c r="B59" s="196"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="201"/>
+      <c r="F59" s="201"/>
+      <c r="G59" s="202"/>
+      <c r="H59" s="202"/>
+      <c r="I59" s="202"/>
+      <c r="J59" s="200"/>
+      <c r="K59" s="200"/>
+      <c r="L59" s="200"/>
+      <c r="M59" s="209"/>
+      <c r="N59" s="209"/>
+      <c r="O59" s="209"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="B60" s="221"/>
-      <c r="C60" s="223"/>
-      <c r="D60" s="222"/>
-      <c r="E60" s="222"/>
-      <c r="F60" s="222"/>
-      <c r="G60" s="223"/>
-      <c r="H60" s="222"/>
-      <c r="I60" s="229"/>
+      <c r="B60" s="196"/>
+      <c r="C60" s="198"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="197"/>
+      <c r="F60" s="197"/>
+      <c r="G60" s="198"/>
+      <c r="H60" s="197"/>
+      <c r="I60" s="203"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="B61" s="221"/>
-      <c r="C61" s="223"/>
-      <c r="D61" s="222"/>
-      <c r="E61" s="222"/>
-      <c r="F61" s="222"/>
-      <c r="G61" s="222"/>
-      <c r="H61" s="222"/>
-      <c r="I61" s="229"/>
+      <c r="B61" s="196"/>
+      <c r="C61" s="198"/>
+      <c r="D61" s="197"/>
+      <c r="E61" s="197"/>
+      <c r="F61" s="197"/>
+      <c r="G61" s="197"/>
+      <c r="H61" s="197"/>
+      <c r="I61" s="203"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="B62" s="221"/>
-      <c r="C62" s="222"/>
-      <c r="D62" s="222"/>
-      <c r="E62" s="222"/>
-      <c r="F62" s="222"/>
-      <c r="G62" s="222"/>
-      <c r="H62" s="222"/>
-      <c r="I62" s="229"/>
+      <c r="B62" s="196"/>
+      <c r="C62" s="197"/>
+      <c r="D62" s="197"/>
+      <c r="E62" s="197"/>
+      <c r="F62" s="197"/>
+      <c r="G62" s="197"/>
+      <c r="H62" s="197"/>
+      <c r="I62" s="203"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="B63" s="221"/>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="222"/>
-      <c r="F63" s="222"/>
-      <c r="G63" s="222"/>
-      <c r="H63" s="222"/>
-      <c r="I63" s="222"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="197"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="197"/>
+      <c r="H63" s="197"/>
+      <c r="I63" s="197"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="B64" s="221"/>
-      <c r="C64" s="222"/>
-      <c r="D64" s="222"/>
-      <c r="E64" s="222"/>
-      <c r="F64" s="222"/>
-      <c r="G64" s="222"/>
-      <c r="H64" s="222"/>
-      <c r="I64" s="230"/>
+      <c r="B64" s="196"/>
+      <c r="C64" s="197"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="197"/>
+      <c r="H64" s="197"/>
+      <c r="I64" s="204"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="221"/>
-      <c r="C65" s="222"/>
-      <c r="D65" s="223"/>
-      <c r="E65" s="231"/>
-      <c r="F65" s="231"/>
-      <c r="G65" s="222"/>
-      <c r="H65" s="222"/>
-      <c r="I65" s="230"/>
-      <c r="M65" s="232"/>
+      <c r="B65" s="196"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="198"/>
+      <c r="E65" s="205"/>
+      <c r="F65" s="205"/>
+      <c r="G65" s="197"/>
+      <c r="H65" s="197"/>
+      <c r="I65" s="204"/>
+      <c r="M65" s="206"/>
     </row>
     <row r="66" spans="2:13">
-      <c r="B66" s="221"/>
-      <c r="C66" s="233"/>
-      <c r="D66" s="222"/>
-      <c r="E66" s="222"/>
-      <c r="F66" s="222"/>
-      <c r="G66" s="222"/>
-      <c r="H66" s="222"/>
-      <c r="I66" s="230"/>
+      <c r="B66" s="196"/>
+      <c r="C66" s="207"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="197"/>
+      <c r="F66" s="197"/>
+      <c r="G66" s="197"/>
+      <c r="H66" s="197"/>
+      <c r="I66" s="204"/>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="221"/>
-      <c r="C67" s="233"/>
-      <c r="D67" s="222"/>
-      <c r="E67" s="222"/>
-      <c r="F67" s="222"/>
-      <c r="G67" s="222"/>
-      <c r="H67" s="222"/>
-      <c r="I67" s="230"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="207"/>
+      <c r="D67" s="197"/>
+      <c r="E67" s="197"/>
+      <c r="F67" s="197"/>
+      <c r="G67" s="197"/>
+      <c r="H67" s="197"/>
+      <c r="I67" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A37"/>
     <mergeCell ref="M58:O59"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="M49:S49"/>
@@ -5442,18 +5452,6 @@
     <mergeCell ref="M51:S51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
